--- a/biology/Botanique/Écorce_de_bouleau/Écorce_de_bouleau.xlsx
+++ b/biology/Botanique/Écorce_de_bouleau/Écorce_de_bouleau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89corce_de_bouleau</t>
+          <t>Écorce_de_bouleau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écorce de bouleau, ou mâchecoui au Canada, est un matériau traditionnel en Europe du Nord, en Russie, en Sibérie, au Canada et au nord des États-Unis. C'est un matériau souple, résistant et imperméable, qui se plie, se façonne et se coud aisément. Elle s'obtient facilement par incision superficielle des troncs et branches principales de diverses espèces de bouleau.
 On l'appelle mâchecoui au Canada, lequel provient généralement du bouleau à papier (Betula papyrifera).
